--- a/data/policy_survey_items_round_2_td.xlsx
+++ b/data/policy_survey_items_round_2_td.xlsx
@@ -23,64 +23,64 @@
     <t xml:space="preserve">term_beta</t>
   </si>
   <si>
-    <t xml:space="preserve">AI should be used to support teachers in providing effective assistance to students with disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a46 ( 0.666 ), na ( 0.333 ), ai ( 0 ), students ( 0 ), use ( 0 ), disabilities ( 0 ), teachers ( 0 ), support ( 0 ), q21 ( 0 ), used ( 0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI should be used to support students with disabilities in their educational settings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q21 ( 0.666 ), na ( 0.333 ), ai ( 0 ), students ( 0 ), use ( 0 ), disabilities ( 0 ), teachers ( 0 ), support ( 0 ), a46 ( 0 ), used ( 0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI should be used to provide explicit teaching support for students with disabilities, as acknowledged by teachers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addressing ( 0.346 ), students ( 0.145 ), use ( 0.145 ), ai ( 0.133 ), teaching ( 0.115 ), thank ( 0.115 ), disabilities ( 0 ), explicit ( 0 ), comments ( 0 ), teachers ( 0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI considerations are important for providing sophisticated information use to students with learning disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai ( 0.071 ), consideration ( 0.043 ), learning ( 0.043 ), use ( 0.042 ), important ( 0.029 ), information ( 0.029 ), sophistication ( 0.029 ), tenants ( 0.029 ), terms ( 0.029 ), students ( 0.026 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-based tools should be utilized to support teachers in planning instructional lessons for students with specific learning disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">related ( 0.124 ), sld ( 0.116 ), support ( 0.061 ), teachers ( 0.06 ), students ( 0.06 ), like ( 0.059 ), instructional ( 0.058 ), lesson ( 0.058 ), planning ( 0.058 ), previously ( 0.058 ), see ( 0.058 ), solutions ( 0.058 ), stated ( 0.058 ), supporting ( 0.058 ), uses ( 0.058 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-driven support tools should be provided to address the learning concerns of students with specific learning disabilities (SLD) in ways that drive student and parent support.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learning ( 0.058 ), sld ( 0.058 ), ai ( 0.057 ), student ( 0.039 ), students ( 0.038 ), parents ( 0.02 ), concerns ( 0.019 ), one ( 0.019 ), support ( 0.019 ), drive ( 0.019 ), tools ( 0.019 ), ways ( 0.019 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI technologies in schools should include provisions for addressing copyright concerns to creatively support students with diverse needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai ( 0.086 ), schools ( 0.057 ), copyright ( 0.057 ), creative ( 0.057 ), support ( 0.029 ), issues ( 0.029 ), need ( 0.029 ), include ( 0.029 ), can ( 0.029 ), concern ( 0.029 ), within ( 0.029 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI should be used by teachers to provide explicit comments addressing the needs of students with disabilities in teaching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments ( 0.346 ), students ( 0.145 ), use ( 0.145 ), ai ( 0.133 ), teaching ( 0.115 ), thank ( 0.115 ), disabilities ( 0 ), addressing ( 0 ), explicit ( 0 ), teachers ( 0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI should be used explicitly in teaching to address the needs of students with disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explicit ( 0.346 ), students ( 0.145 ), use ( 0.145 ), ai ( 0.133 ), teaching ( 0.115 ), thank ( 0.115 ), disabilities ( 0 ), addressing ( 0 ), comments ( 0 ), teachers ( 0 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI should be actively used in special education to enhance access to actual development opportunities for students with learning disabilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai ( 0.052 ), teachers ( 0.044 ), students ( 0.044 ), education ( 0.026 ), special ( 0.026 ), access ( 0.026 ), actual ( 0.026 ), ld ( 0.026 ), used ( 0.018 ), development ( 0.018 )</t>
+    <t xml:space="preserve">AI should be utilized to provide comprehensive support for students with disabilities, including addressing individual concerns and ensuring inclusive practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a46 ( 0.666 ), na ( 0.333 ), ai ( 0 ), use ( 0 ), student ( 0 ), disability ( 0 ), q21 ( 0 ), support ( 0 ), concern ( 0 ), include ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used to support students with disabilities in addressing their educational concerns effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21 ( 0.666 ), na ( 0.333 ), ai ( 0 ), use ( 0 ), student ( 0 ), disability ( 0 ), a46 ( 0 ), support ( 0 ), concern ( 0 ), include ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should provide explicit support to students with disabilities in teaching to address their individual needs effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address ( 0.356 ), use ( 0.139 ), student ( 0.134 ), ai ( 0.134 ), teaching ( 0.119 ), thank ( 0.119 ), disability ( 0 ), comment ( 0 ), explicit ( 0 ), support ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI considerations in educational design are crucial for supporting students with specific learning disabilities (SLD).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.064 ), use ( 0.044 ), student ( 0.032 ), parent ( 0.028 ), consideration ( 0.028 ), learn ( 0.028 ), sld ( 0.028 ), important ( 0.019 ), design ( 0.019 ), information ( 0.019 ), sophistication ( 0.019 ), tenant ( 0.019 ), term ( 0.019 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be actively used to support students with specific learning disabilities (SLD) in their learning, and teachers should explore its current effectiveness in their work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.159 ), learning ( 0.128 ), support ( 0.117 ), use ( 0.079 ), ai ( 0.074 ), currently ( 0.064 ), sld ( 0.064 ), work ( 0.063 ), teacher ( 0.063 ), explore ( 0.063 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used to create instructional materials that support students with specific learning disabilities (SLD) in relating to lesson content like a teacher would in a traditional classroom setting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support ( 0.121 ), relate ( 0.119 ), sld ( 0.117 ), use ( 0.059 ), state ( 0.059 ), like ( 0.059 ), teacher ( 0.059 ), student ( 0.058 ), instructional ( 0.058 ), lesson ( 0.058 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI technologies used in schools should include clear guidelines on copyright issues to protect the creative rights of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.086 ), school ( 0.057 ), copyright ( 0.057 ), creative ( 0.057 ), concern ( 0.029 ), issue ( 0.029 ), right ( 0.029 ), include ( 0.029 ), can ( 0.029 ), within ( 0.029 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used explicitly to address and support students with disabilities in teaching practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment ( 0.356 ), use ( 0.139 ), student ( 0.134 ), ai ( 0.134 ), teaching ( 0.119 ), thank ( 0.119 ), disability ( 0 ), address ( 0 ), explicit ( 0 ), support ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used explicitly to support students with disabilities in teaching practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explicit ( 0.356 ), use ( 0.139 ), student ( 0.134 ), ai ( 0.134 ), teaching ( 0.119 ), thank ( 0.119 ), disability ( 0 ), address ( 0 ), comment ( 0 ), support ( 0 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-driven tools should be utilized to meet the specific educational needs of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.052 ), student ( 0.052 ), teacher ( 0.044 ), education ( 0.026 ), special ( 0.026 ), actual ( 0.026 ), ld ( 0.026 ), need ( 0.026 ), use ( 0.025 ), drive ( 0.018 )</t>
   </si>
 </sst>
 </file>
